--- a/2/results2.xlsx
+++ b/2/results2.xlsx
@@ -35,320 +35,320 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DD9503"/>
-        <bgColor rgb="00DD9503"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBD8D7"/>
-        <bgColor rgb="00DBD8D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7D3D2"/>
-        <bgColor rgb="00D7D3D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001062B0"/>
-        <bgColor rgb="001062B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6D3D5"/>
-        <bgColor rgb="00D6D3D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00188144"/>
-        <bgColor rgb="00188144"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00539A5D"/>
-        <bgColor rgb="00539A5D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BA1228"/>
-        <bgColor rgb="00BA1228"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6C504"/>
-        <bgColor rgb="00D6C504"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D73C3F"/>
-        <bgColor rgb="00D73C3F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000364B1"/>
-        <bgColor rgb="000364B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003B934D"/>
-        <bgColor rgb="003B934D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBDA38"/>
-        <bgColor rgb="00EBDA38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00208F53"/>
-        <bgColor rgb="00208F53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B71229"/>
-        <bgColor rgb="00B71229"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EDDC46"/>
-        <bgColor rgb="00EDDC46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D28903"/>
-        <bgColor rgb="00D28903"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BE7803"/>
-        <bgColor rgb="00BE7803"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000C69BA"/>
-        <bgColor rgb="000C69BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DC9302"/>
-        <bgColor rgb="00DC9302"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00318D48"/>
-        <bgColor rgb="00318D48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00126ABB"/>
-        <bgColor rgb="00126ABB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C3112E"/>
-        <bgColor rgb="00C3112E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7C805"/>
-        <bgColor rgb="00D7C805"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003076C3"/>
-        <bgColor rgb="003076C3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBCB07"/>
-        <bgColor rgb="00DBCB07"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CACBCF"/>
-        <bgColor rgb="00CACBCF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000662B0"/>
-        <bgColor rgb="000662B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00025AA3"/>
-        <bgColor rgb="00025AA3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BF1C2C"/>
-        <bgColor rgb="00BF1C2C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DD9603"/>
-        <bgColor rgb="00DD9603"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D58C03"/>
-        <bgColor rgb="00D58C03"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6D6D8"/>
-        <bgColor rgb="00D6D6D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00479759"/>
-        <bgColor rgb="00479759"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B91429"/>
-        <bgColor rgb="00B91429"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0C004"/>
-        <bgColor rgb="00D0C004"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E29902"/>
-        <bgColor rgb="00E29902"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2DFDE"/>
-        <bgColor rgb="00E2DFDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C61B2B"/>
-        <bgColor rgb="00C61B2B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CF4345"/>
-        <bgColor rgb="00CF4345"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00065EAA"/>
-        <bgColor rgb="00065EAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00218B4B"/>
-        <bgColor rgb="00218B4B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D3635E"/>
-        <bgColor rgb="00D3635E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00288C4E"/>
-        <bgColor rgb="00288C4E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CC8403"/>
-        <bgColor rgb="00CC8403"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBC905"/>
-        <bgColor rgb="00DBC905"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0003559B"/>
-        <bgColor rgb="0003559B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEDBDC"/>
-        <bgColor rgb="00DEDBDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCCA0B"/>
-        <bgColor rgb="00DCCA0B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001D8146"/>
-        <bgColor rgb="001D8146"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6D640"/>
-        <bgColor rgb="00E6D640"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D38A02"/>
-        <bgColor rgb="00D38A02"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D3D0D2"/>
-        <bgColor rgb="00D3D0D2"/>
+        <fgColor rgb="00E2A306"/>
+        <bgColor rgb="00E2A306"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0DEDD"/>
+        <bgColor rgb="00E0DEDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDD9D9"/>
+        <bgColor rgb="00DDD9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001A73BB"/>
+        <bgColor rgb="001A73BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCD9DB"/>
+        <bgColor rgb="00DCD9DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00239055"/>
+        <bgColor rgb="00239055"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0064A76E"/>
+        <bgColor rgb="0064A76E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C41C36"/>
+        <bgColor rgb="00C41C36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCCE07"/>
+        <bgColor rgb="00DCCE07"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DD4C50"/>
+        <bgColor rgb="00DD4C50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000575BC"/>
+        <bgColor rgb="000575BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004BA15E"/>
+        <bgColor rgb="004BA15E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEDF48"/>
+        <bgColor rgb="00EEDF48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002D9D64"/>
+        <bgColor rgb="002D9D64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C11D38"/>
+        <bgColor rgb="00C11D38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0E257"/>
+        <bgColor rgb="00F0E257"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D99805"/>
+        <bgColor rgb="00D99805"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C78805"/>
+        <bgColor rgb="00C78805"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00147AC4"/>
+        <bgColor rgb="00147AC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1A104"/>
+        <bgColor rgb="00E1A104"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00419B59"/>
+        <bgColor rgb="00419B59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001C7BC5"/>
+        <bgColor rgb="001C7BC5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC193D"/>
+        <bgColor rgb="00CC193D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDD009"/>
+        <bgColor rgb="00DDD009"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003F86CC"/>
+        <bgColor rgb="003F86CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1D30C"/>
+        <bgColor rgb="00E1D30C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2D3D6"/>
+        <bgColor rgb="00D2D3D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000B73BB"/>
+        <bgColor rgb="000B73BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00056BAF"/>
+        <bgColor rgb="00056BAF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8283B"/>
+        <bgColor rgb="00C8283B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2A406"/>
+        <bgColor rgb="00E2A406"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DC9B05"/>
+        <bgColor rgb="00DC9B05"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCDCDE"/>
+        <bgColor rgb="00DCDCDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0058A56A"/>
+        <bgColor rgb="0058A56A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C31F37"/>
+        <bgColor rgb="00C31F37"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7C907"/>
+        <bgColor rgb="00D7C907"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6A604"/>
+        <bgColor rgb="00E6A604"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7E4E3"/>
+        <bgColor rgb="00E7E4E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CF273A"/>
+        <bgColor rgb="00CF273A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D65356"/>
+        <bgColor rgb="00D65356"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00096FB6"/>
+        <bgColor rgb="00096FB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E995C"/>
+        <bgColor rgb="002E995C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DA746E"/>
+        <bgColor rgb="00DA746E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00369A5F"/>
+        <bgColor rgb="00369A5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D49305"/>
+        <bgColor rgb="00D49305"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0D108"/>
+        <bgColor rgb="00E0D108"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000666A8"/>
+        <bgColor rgb="000666A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3E0E1"/>
+        <bgColor rgb="00E3E0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1D212"/>
+        <bgColor rgb="00E1D212"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002A9057"/>
+        <bgColor rgb="002A9057"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EADC50"/>
+        <bgColor rgb="00EADC50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D99904"/>
+        <bgColor rgb="00D99904"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAD7D8"/>
+        <bgColor rgb="00DAD7D8"/>
       </patternFill>
     </fill>
   </fills>
@@ -802,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,25 +842,25 @@
       </c>
       <c r="Z1" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 215
-G 60
-B 63
+          <t xml:space="preserve">R 221
+G 76
+B 80
 </t>
         </is>
       </c>
       <c r="AA1" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 3
-G 100
-B 177
+          <t xml:space="preserve">R 5
+G 117
+B 188
 </t>
         </is>
       </c>
       <c r="AB1" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 59
-G 147
-B 77
+          <t xml:space="preserve">R 75
+G 161
+B 94
 </t>
         </is>
       </c>
@@ -886,25 +886,25 @@
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 235
-G 218
+          <t xml:space="preserve">R 238
+G 223
+B 72
+</t>
+        </is>
+      </c>
+      <c r="AA2" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 45
+G 157
+B 100
+</t>
+        </is>
+      </c>
+      <c r="AB2" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 193
+G 29
 B 56
-</t>
-        </is>
-      </c>
-      <c r="AA2" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 32
-G 143
-B 83
-</t>
-        </is>
-      </c>
-      <c r="AB2" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 183
-G 18
-B 41
 </t>
         </is>
       </c>
@@ -930,25 +930,25 @@
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 237
-G 220
-B 70
+          <t xml:space="preserve">R 240
+G 226
+B 87
 </t>
         </is>
       </c>
       <c r="AA3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 210
-G 137
-B 3
+          <t xml:space="preserve">R 217
+G 152
+B 5
 </t>
         </is>
       </c>
       <c r="AB3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 190
-G 120
-B 3
+          <t xml:space="preserve">R 199
+G 136
+B 5
 </t>
         </is>
       </c>
@@ -1010,73 +1010,73 @@
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 12
-G 105
-B 186
+          <t xml:space="preserve">R 20
+G 122
+B 196
 </t>
         </is>
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 220
-G 147
-B 2
+          <t xml:space="preserve">R 225
+G 161
+B 4
 </t>
         </is>
       </c>
       <c r="Y4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 49
-G 141
-B 72
+          <t xml:space="preserve">R 65
+G 155
+B 89
 </t>
         </is>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
+          <t xml:space="preserve">R 226
+G 163
+B 6
+</t>
+        </is>
+      </c>
+      <c r="AA4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 224
+G 222
+B 221
+</t>
+        </is>
+      </c>
+      <c r="AB4" s="5" t="inlineStr">
+        <is>
           <t xml:space="preserve">R 221
-G 149
-B 3
-</t>
-        </is>
-      </c>
-      <c r="AA4" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 219
-G 216
-B 215
-</t>
-        </is>
-      </c>
-      <c r="AB4" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 215
-G 211
-B 210
+G 217
+B 217
 </t>
         </is>
       </c>
       <c r="AC4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 6
-G 98
-B 176
+          <t xml:space="preserve">R 11
+G 115
+B 187
 </t>
         </is>
       </c>
       <c r="AD4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 2
-G 90
-B 163
+          <t xml:space="preserve">R 5
+G 107
+B 175
 </t>
         </is>
       </c>
       <c r="AE4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 191
-G 28
-B 44
+          <t xml:space="preserve">R 200
+G 40
+B 59
 </t>
         </is>
       </c>
@@ -1138,73 +1138,73 @@
       </c>
       <c r="W5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 18
-G 106
+          <t xml:space="preserve">R 28
+G 123
+B 197
+</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 204
+G 25
+B 61
+</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 221
+G 208
+B 9
+</t>
+        </is>
+      </c>
+      <c r="Z5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 26
+G 115
 B 187
 </t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 195
-G 17
-B 46
-</t>
-        </is>
-      </c>
-      <c r="Y5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 215
-G 200
+      <c r="AA5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 220
+G 217
+B 219
+</t>
+        </is>
+      </c>
+      <c r="AB5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 35
+G 144
+B 85
+</t>
+        </is>
+      </c>
+      <c r="AC5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 226
+G 164
+B 6
+</t>
+        </is>
+      </c>
+      <c r="AD5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 220
+G 155
 B 5
 </t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 16
-G 98
-B 176
-</t>
-        </is>
-      </c>
-      <c r="AA5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 214
-G 211
-B 213
-</t>
-        </is>
-      </c>
-      <c r="AB5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 24
-G 129
-B 68
-</t>
-        </is>
-      </c>
-      <c r="AC5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 221
-G 150
-B 3
-</t>
-        </is>
-      </c>
-      <c r="AD5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 213
-G 140
-B 3
-</t>
-        </is>
-      </c>
       <c r="AE5" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 214
-G 214
-B 216
+          <t xml:space="preserve">R 220
+G 220
+B 222
 </t>
         </is>
       </c>
@@ -1266,73 +1266,73 @@
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 48
-G 118
-B 195
+          <t xml:space="preserve">R 63
+G 134
+B 204
 </t>
         </is>
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 219
-G 203
+          <t xml:space="preserve">R 225
+G 211
+B 12
+</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 210
+G 211
+B 214
+</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 100
+G 167
+B 110
+</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 196
+G 28
+B 54
+</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R 220
+G 206
 B 7
 </t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 202
-G 203
-B 207
-</t>
-        </is>
-      </c>
-      <c r="Z6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 83
-G 154
-B 93
-</t>
-        </is>
-      </c>
-      <c r="AA6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 186
-G 18
-B 40
-</t>
-        </is>
-      </c>
-      <c r="AB6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R 214
-G 197
-B 4
-</t>
-        </is>
-      </c>
       <c r="AC6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 71
-G 151
-B 89
+          <t xml:space="preserve">R 88
+G 165
+B 106
 </t>
         </is>
       </c>
       <c r="AD6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 185
-G 20
-B 41
+          <t xml:space="preserve">R 195
+G 31
+B 55
 </t>
         </is>
       </c>
       <c r="AE6" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 208
-G 192
-B 4
+          <t xml:space="preserve">R 215
+G 201
+B 7
 </t>
         </is>
       </c>
@@ -1358,25 +1358,25 @@
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 226
-G 153
-B 2
+          <t xml:space="preserve">R 230
+G 166
+B 4
 </t>
         </is>
       </c>
       <c r="AA7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 226
-G 223
-B 222
+          <t xml:space="preserve">R 231
+G 228
+B 227
 </t>
         </is>
       </c>
       <c r="AB7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 198
-G 27
-B 43
+          <t xml:space="preserve">R 207
+G 39
+B 58
 </t>
         </is>
       </c>
@@ -1402,25 +1402,25 @@
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 207
-G 67
-B 69
+          <t xml:space="preserve">R 214
+G 83
+B 86
 </t>
         </is>
       </c>
       <c r="AA8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 6
-G 94
-B 170
+          <t xml:space="preserve">R 9
+G 111
+B 182
 </t>
         </is>
       </c>
       <c r="AB8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 33
-G 139
-B 75
+          <t xml:space="preserve">R 46
+G 153
+B 92
 </t>
         </is>
       </c>
@@ -1446,25 +1446,25 @@
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 211
-G 99
-B 94
+          <t xml:space="preserve">R 218
+G 116
+B 110
 </t>
         </is>
       </c>
       <c r="AA9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 40
-G 140
-B 78
+          <t xml:space="preserve">R 54
+G 154
+B 95
 </t>
         </is>
       </c>
       <c r="AB9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 204
-G 132
-B 3
+          <t xml:space="preserve">R 212
+G 147
+B 5
 </t>
         </is>
       </c>
@@ -1490,25 +1490,25 @@
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 219
-G 216
-B 215
+          <t xml:space="preserve">R 224
+G 222
+B 221
 </t>
         </is>
       </c>
       <c r="AA10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 219
-G 201
-B 5
+          <t xml:space="preserve">R 224
+G 209
+B 8
 </t>
         </is>
       </c>
       <c r="AB10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 3
-G 85
-B 155
+          <t xml:space="preserve">R 6
+G 102
+B 168
 </t>
         </is>
       </c>
@@ -1534,25 +1534,25 @@
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 222
-G 219
-B 220
+          <t xml:space="preserve">R 227
+G 224
+B 225
 </t>
         </is>
       </c>
       <c r="AA11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 220
-G 202
-B 11
+          <t xml:space="preserve">R 225
+G 210
+B 18
 </t>
         </is>
       </c>
       <c r="AB11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 29
-G 129
-B 70
+          <t xml:space="preserve">R 42
+G 144
+B 87
 </t>
         </is>
       </c>
@@ -1578,25 +1578,25 @@
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 230
-G 214
-B 64
+          <t xml:space="preserve">R 234
+G 220
+B 80
 </t>
         </is>
       </c>
       <c r="AA12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 211
-G 138
-B 2
+          <t xml:space="preserve">R 217
+G 153
+B 4
 </t>
         </is>
       </c>
       <c r="AB12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 211
-G 208
-B 210
+          <t xml:space="preserve">R 218
+G 215
+B 216
 </t>
         </is>
       </c>
@@ -1640,6 +1640,13 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>yellow: 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>gamma: 1.7999999999999994</t>
         </is>
       </c>
     </row>
